--- a/future_prediction/iran/Weekly-Deaths-Prediction r = 9.xlsx
+++ b/future_prediction/iran/Weekly-Deaths-Prediction r = 9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="64">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -52,6 +52,9 @@
     <t>2020-12-26</t>
   </si>
   <si>
+    <t>2021-01-09</t>
+  </si>
+  <si>
     <t>29 Mar -- 04 Apr 2020</t>
   </si>
   <si>
@@ -194,6 +197,12 @@
   </si>
   <si>
     <t>21 Feb -- 27 Feb 2021</t>
+  </si>
+  <si>
+    <t>28 Feb -- 06 Mar 2021</t>
+  </si>
+  <si>
+    <t>07 Mar -- 13 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -554,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,7 +609,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>133.57</v>
@@ -612,7 +621,7 @@
         <v>13.86</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G2">
         <v>0.09</v>
@@ -629,7 +638,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>129.29</v>
@@ -641,7 +650,7 @@
         <v>9.57</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -649,7 +658,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>96.29000000000001</v>
@@ -661,7 +670,7 @@
         <v>23.43</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -669,7 +678,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>88.43000000000001</v>
@@ -681,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -689,7 +698,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>72.29000000000001</v>
@@ -701,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -709,7 +718,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>61.86</v>
@@ -721,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -729,7 +738,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>49.71</v>
@@ -741,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -749,7 +758,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>60.29</v>
@@ -761,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -769,7 +778,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>53.57</v>
@@ -781,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -789,7 +798,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>67.86</v>
@@ -801,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -809,7 +818,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>74.43000000000001</v>
@@ -821,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -829,7 +838,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13">
         <v>111</v>
@@ -841,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -849,7 +858,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14">
         <v>122.43</v>
@@ -861,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -869,7 +878,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15">
         <v>149.14</v>
@@ -881,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -889,7 +898,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16">
         <v>175.29</v>
@@ -901,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -909,7 +918,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>192</v>
@@ -921,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -929,7 +938,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18">
         <v>215</v>
@@ -941,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -949,7 +958,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19">
         <v>214</v>
@@ -961,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -969,7 +978,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20">
         <v>183.14</v>
@@ -981,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -989,7 +998,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21">
         <v>175.43</v>
@@ -1001,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1009,7 +1018,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22">
         <v>144.29</v>
@@ -1021,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1029,7 +1038,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C23">
         <v>122.43</v>
@@ -1041,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1049,7 +1058,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>113.57</v>
@@ -1061,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1069,7 +1078,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25">
         <v>125</v>
@@ -1081,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1089,7 +1098,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26">
         <v>155.57</v>
@@ -1101,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1109,7 +1118,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27">
         <v>182.29</v>
@@ -1121,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1129,7 +1138,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C28">
         <v>193.14</v>
@@ -1141,7 +1150,7 @@
         <v>84</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1149,7 +1158,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C29">
         <v>221</v>
@@ -1161,7 +1170,7 @@
         <v>69.65000000000001</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1169,7 +1178,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C30">
         <v>261.43</v>
@@ -1181,7 +1190,7 @@
         <v>108.14</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1189,7 +1198,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C31">
         <v>313.86</v>
@@ -1201,7 +1210,7 @@
         <v>164.29</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1209,7 +1218,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C32">
         <v>363.43</v>
@@ -1221,7 +1230,7 @@
         <v>199.55</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1229,7 +1238,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C33">
         <v>424</v>
@@ -1241,7 +1250,7 @@
         <v>271.79</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1249,7 +1258,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C34">
         <v>457.43</v>
@@ -1261,7 +1270,7 @@
         <v>307.64</v>
       </c>
       <c r="F34" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1269,7 +1278,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C35">
         <v>470.43</v>
@@ -1281,7 +1290,7 @@
         <v>331.9</v>
       </c>
       <c r="F35" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1289,7 +1298,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C36">
         <v>451.29</v>
@@ -1301,7 +1310,7 @@
         <v>306.33</v>
       </c>
       <c r="F36" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1309,7 +1318,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C37">
         <v>361.43</v>
@@ -1321,7 +1330,7 @@
         <v>212.45</v>
       </c>
       <c r="F37" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1329,7 +1338,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C38">
         <v>276.14</v>
@@ -1341,7 +1350,7 @@
         <v>126.66</v>
       </c>
       <c r="F38" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1349,7 +1358,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C39">
         <v>214.14</v>
@@ -1361,7 +1370,7 @@
         <v>44.65</v>
       </c>
       <c r="F39" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1369,7 +1378,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C40">
         <v>160.86</v>
@@ -1381,7 +1390,7 @@
         <v>3.34</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1389,7 +1398,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C41">
         <v>123.43</v>
@@ -1401,7 +1410,7 @@
         <v>49.67</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J41">
         <v>49.67</v>
@@ -1415,13 +1424,25 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="C42">
+        <v>94.56999999999999</v>
       </c>
       <c r="D42">
         <v>185.89</v>
       </c>
+      <c r="E42">
+        <v>91.31999999999999</v>
+      </c>
       <c r="F42" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="J42">
+        <v>70.5</v>
+      </c>
+      <c r="K42">
+        <v>68.40000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1429,13 +1450,13 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D43">
         <v>198.97</v>
       </c>
       <c r="F43" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1443,13 +1464,13 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D44">
         <v>204.67</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1457,13 +1478,13 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D45">
         <v>226.08</v>
       </c>
       <c r="F45" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1471,13 +1492,13 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D46">
         <v>240.72</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1485,13 +1506,13 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D47">
         <v>257.16</v>
       </c>
       <c r="F47" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1499,27 +1520,162 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D48">
         <v>241.19</v>
       </c>
       <c r="F48" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" t="s">
-        <v>59</v>
       </c>
       <c r="D49">
         <v>220.46</v>
       </c>
       <c r="F49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50">
+        <v>264.28</v>
+      </c>
+      <c r="F50" t="s">
+        <v>63</v>
+      </c>
+      <c r="G50">
+        <v>2.91</v>
+      </c>
+      <c r="H50">
+        <v>93.48</v>
+      </c>
+      <c r="I50">
+        <v>88.41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51">
+        <v>294.34</v>
+      </c>
+      <c r="F51" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52">
+        <v>295.89</v>
+      </c>
+      <c r="F52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53">
+        <v>288.23</v>
+      </c>
+      <c r="F53" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54">
+        <v>273.6</v>
+      </c>
+      <c r="F54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55">
+        <v>277.5</v>
+      </c>
+      <c r="F55" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" t="s">
         <v>60</v>
+      </c>
+      <c r="D56">
+        <v>257.79</v>
+      </c>
+      <c r="F56" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+      <c r="D57">
+        <v>253.42</v>
+      </c>
+      <c r="F57" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58">
+        <v>292.15</v>
+      </c>
+      <c r="F58" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/iran/Weekly-Deaths-Prediction r = 9.xlsx
+++ b/future_prediction/iran/Weekly-Deaths-Prediction r = 9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="65">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>2020-12-26</t>
+  </si>
+  <si>
+    <t>2021-01-02</t>
   </si>
   <si>
     <t>2021-01-09</t>
@@ -563,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,7 +612,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>133.57</v>
@@ -621,7 +624,7 @@
         <v>13.86</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G2">
         <v>0.09</v>
@@ -638,7 +641,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>129.29</v>
@@ -650,7 +653,7 @@
         <v>9.57</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -658,7 +661,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>96.29000000000001</v>
@@ -670,7 +673,7 @@
         <v>23.43</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -678,7 +681,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>88.43000000000001</v>
@@ -690,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -698,7 +701,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>72.29000000000001</v>
@@ -710,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -718,7 +721,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>61.86</v>
@@ -730,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -738,7 +741,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>49.71</v>
@@ -750,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,7 +761,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>60.29</v>
@@ -770,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -778,7 +781,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>53.57</v>
@@ -790,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -798,7 +801,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>67.86</v>
@@ -810,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -818,7 +821,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>74.43000000000001</v>
@@ -830,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -838,7 +841,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>111</v>
@@ -850,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -858,7 +861,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <v>122.43</v>
@@ -870,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -878,7 +881,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>149.14</v>
@@ -890,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -898,7 +901,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>175.29</v>
@@ -910,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -918,7 +921,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <v>192</v>
@@ -930,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -938,7 +941,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18">
         <v>215</v>
@@ -950,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -958,7 +961,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19">
         <v>214</v>
@@ -970,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -978,7 +981,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20">
         <v>183.14</v>
@@ -990,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -998,7 +1001,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21">
         <v>175.43</v>
@@ -1010,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1018,7 +1021,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22">
         <v>144.29</v>
@@ -1030,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1038,7 +1041,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>122.43</v>
@@ -1050,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1058,7 +1061,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24">
         <v>113.57</v>
@@ -1070,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1078,7 +1081,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25">
         <v>125</v>
@@ -1090,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1098,7 +1101,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26">
         <v>155.57</v>
@@ -1110,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1118,7 +1121,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27">
         <v>182.29</v>
@@ -1130,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1138,7 +1141,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28">
         <v>193.14</v>
@@ -1150,7 +1153,7 @@
         <v>84</v>
       </c>
       <c r="F28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1158,7 +1161,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C29">
         <v>221</v>
@@ -1170,7 +1173,7 @@
         <v>69.65000000000001</v>
       </c>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1178,7 +1181,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30">
         <v>261.43</v>
@@ -1190,7 +1193,7 @@
         <v>108.14</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1198,7 +1201,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31">
         <v>313.86</v>
@@ -1210,7 +1213,7 @@
         <v>164.29</v>
       </c>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1218,7 +1221,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C32">
         <v>363.43</v>
@@ -1230,7 +1233,7 @@
         <v>199.55</v>
       </c>
       <c r="F32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1238,7 +1241,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C33">
         <v>424</v>
@@ -1250,7 +1253,7 @@
         <v>271.79</v>
       </c>
       <c r="F33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1258,7 +1261,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C34">
         <v>457.43</v>
@@ -1270,7 +1273,7 @@
         <v>307.64</v>
       </c>
       <c r="F34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1278,7 +1281,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C35">
         <v>470.43</v>
@@ -1290,7 +1293,7 @@
         <v>331.9</v>
       </c>
       <c r="F35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1298,7 +1301,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C36">
         <v>451.29</v>
@@ -1310,7 +1313,7 @@
         <v>306.33</v>
       </c>
       <c r="F36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1318,7 +1321,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C37">
         <v>361.43</v>
@@ -1330,7 +1333,7 @@
         <v>212.45</v>
       </c>
       <c r="F37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1338,7 +1341,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38">
         <v>276.14</v>
@@ -1350,7 +1353,7 @@
         <v>126.66</v>
       </c>
       <c r="F38" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1358,7 +1361,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C39">
         <v>214.14</v>
@@ -1370,7 +1373,7 @@
         <v>44.65</v>
       </c>
       <c r="F39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1378,7 +1381,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C40">
         <v>160.86</v>
@@ -1390,7 +1393,7 @@
         <v>3.34</v>
       </c>
       <c r="F40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1398,7 +1401,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C41">
         <v>123.43</v>
@@ -1410,7 +1413,7 @@
         <v>49.67</v>
       </c>
       <c r="F41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J41">
         <v>49.67</v>
@@ -1424,7 +1427,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C42">
         <v>94.56999999999999</v>
@@ -1436,7 +1439,7 @@
         <v>91.31999999999999</v>
       </c>
       <c r="F42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J42">
         <v>70.5</v>
@@ -1450,13 +1453,13 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D43">
         <v>198.97</v>
       </c>
       <c r="F43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1464,13 +1467,13 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D44">
         <v>204.67</v>
       </c>
       <c r="F44" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1478,13 +1481,13 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D45">
         <v>226.08</v>
       </c>
       <c r="F45" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1492,13 +1495,13 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D46">
         <v>240.72</v>
       </c>
       <c r="F46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1506,13 +1509,13 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D47">
         <v>257.16</v>
       </c>
       <c r="F47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1520,53 +1523,65 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D48">
         <v>241.19</v>
       </c>
       <c r="F48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D49">
         <v>220.46</v>
       </c>
       <c r="F49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>12</v>
       </c>
       <c r="B50" t="s">
         <v>54</v>
       </c>
+      <c r="C50">
+        <v>94.56999999999999</v>
+      </c>
       <c r="D50">
-        <v>264.28</v>
+        <v>236.37</v>
+      </c>
+      <c r="E50">
+        <v>141.8</v>
       </c>
       <c r="F50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G50">
-        <v>2.91</v>
+        <v>6.03</v>
       </c>
       <c r="H50">
-        <v>93.48</v>
+        <v>48.15</v>
       </c>
       <c r="I50">
-        <v>88.41</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>59.43</v>
+      </c>
+      <c r="J50">
+        <v>94.26000000000001</v>
+      </c>
+      <c r="K50">
+        <v>95.58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -1574,13 +1589,13 @@
         <v>55</v>
       </c>
       <c r="D51">
-        <v>294.34</v>
+        <v>264.28</v>
       </c>
       <c r="F51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -1588,13 +1603,13 @@
         <v>56</v>
       </c>
       <c r="D52">
-        <v>295.89</v>
+        <v>294.34</v>
       </c>
       <c r="F52" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -1602,13 +1617,13 @@
         <v>57</v>
       </c>
       <c r="D53">
-        <v>288.23</v>
+        <v>295.89</v>
       </c>
       <c r="F53" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -1616,13 +1631,13 @@
         <v>58</v>
       </c>
       <c r="D54">
-        <v>273.6</v>
+        <v>288.23</v>
       </c>
       <c r="F54" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -1630,13 +1645,13 @@
         <v>59</v>
       </c>
       <c r="D55">
-        <v>277.5</v>
+        <v>273.6</v>
       </c>
       <c r="F55" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -1644,13 +1659,13 @@
         <v>60</v>
       </c>
       <c r="D56">
-        <v>257.79</v>
+        <v>277.5</v>
       </c>
       <c r="F56" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -1658,13 +1673,13 @@
         <v>61</v>
       </c>
       <c r="D57">
-        <v>253.42</v>
+        <v>257.79</v>
       </c>
       <c r="F57" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -1672,10 +1687,145 @@
         <v>62</v>
       </c>
       <c r="D58">
+        <v>253.42</v>
+      </c>
+      <c r="F58" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" t="s">
+        <v>55</v>
+      </c>
+      <c r="D59">
+        <v>264.28</v>
+      </c>
+      <c r="F59" t="s">
+        <v>64</v>
+      </c>
+      <c r="G59">
+        <v>2.91</v>
+      </c>
+      <c r="H59">
+        <v>93.48</v>
+      </c>
+      <c r="I59">
+        <v>88.41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" t="s">
+        <v>56</v>
+      </c>
+      <c r="D60">
+        <v>294.34</v>
+      </c>
+      <c r="F60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61">
+        <v>295.89</v>
+      </c>
+      <c r="F61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62">
+        <v>288.23</v>
+      </c>
+      <c r="F62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" t="s">
+        <v>59</v>
+      </c>
+      <c r="D63">
+        <v>273.6</v>
+      </c>
+      <c r="F63" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" t="s">
+        <v>60</v>
+      </c>
+      <c r="D64">
+        <v>277.5</v>
+      </c>
+      <c r="F64" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" t="s">
+        <v>61</v>
+      </c>
+      <c r="D65">
+        <v>257.79</v>
+      </c>
+      <c r="F65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" t="s">
+        <v>62</v>
+      </c>
+      <c r="D66">
+        <v>253.42</v>
+      </c>
+      <c r="F66" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67">
         <v>292.15</v>
       </c>
-      <c r="F58" t="s">
-        <v>63</v>
+      <c r="F67" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/iran/Weekly-Deaths-Prediction r = 9.xlsx
+++ b/future_prediction/iran/Weekly-Deaths-Prediction r = 9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="67">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -58,6 +58,9 @@
     <t>2021-01-09</t>
   </si>
   <si>
+    <t>2021-01-16</t>
+  </si>
+  <si>
     <t>29 Mar -- 04 Apr 2020</t>
   </si>
   <si>
@@ -206,6 +209,9 @@
   </si>
   <si>
     <t>07 Mar -- 13 Mar 2021</t>
+  </si>
+  <si>
+    <t>14 Mar -- 20 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -566,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,7 +618,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>133.57</v>
@@ -624,7 +630,7 @@
         <v>13.86</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G2">
         <v>0.09</v>
@@ -641,7 +647,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>129.29</v>
@@ -653,7 +659,7 @@
         <v>9.57</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -661,7 +667,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>96.29000000000001</v>
@@ -673,7 +679,7 @@
         <v>23.43</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -681,7 +687,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>88.43000000000001</v>
@@ -693,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -701,7 +707,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>72.29000000000001</v>
@@ -713,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -721,7 +727,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>61.86</v>
@@ -733,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -741,7 +747,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>49.71</v>
@@ -753,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -761,7 +767,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>60.29</v>
@@ -773,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -781,7 +787,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>53.57</v>
@@ -793,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -801,7 +807,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>67.86</v>
@@ -813,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,7 +827,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>74.43000000000001</v>
@@ -833,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -841,7 +847,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>111</v>
@@ -853,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -861,7 +867,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>122.43</v>
@@ -873,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -881,7 +887,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>149.14</v>
@@ -893,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -901,7 +907,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>175.29</v>
@@ -913,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -921,7 +927,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17">
         <v>192</v>
@@ -933,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -941,7 +947,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18">
         <v>215</v>
@@ -953,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -961,7 +967,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19">
         <v>214</v>
@@ -973,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -981,7 +987,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20">
         <v>183.14</v>
@@ -993,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1001,7 +1007,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21">
         <v>175.43</v>
@@ -1013,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1021,7 +1027,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>144.29</v>
@@ -1033,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1041,7 +1047,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23">
         <v>122.43</v>
@@ -1053,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1061,7 +1067,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24">
         <v>113.57</v>
@@ -1073,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1081,7 +1087,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25">
         <v>125</v>
@@ -1093,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1101,7 +1107,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26">
         <v>155.57</v>
@@ -1113,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1121,7 +1127,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27">
         <v>182.29</v>
@@ -1133,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1141,7 +1147,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28">
         <v>193.14</v>
@@ -1153,7 +1159,7 @@
         <v>84</v>
       </c>
       <c r="F28" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1161,7 +1167,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29">
         <v>221</v>
@@ -1173,7 +1179,7 @@
         <v>69.65000000000001</v>
       </c>
       <c r="F29" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1181,7 +1187,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30">
         <v>261.43</v>
@@ -1193,7 +1199,7 @@
         <v>108.14</v>
       </c>
       <c r="F30" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1201,7 +1207,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C31">
         <v>313.86</v>
@@ -1213,7 +1219,7 @@
         <v>164.29</v>
       </c>
       <c r="F31" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1221,7 +1227,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32">
         <v>363.43</v>
@@ -1233,7 +1239,7 @@
         <v>199.55</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1241,7 +1247,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C33">
         <v>424</v>
@@ -1253,7 +1259,7 @@
         <v>271.79</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1261,7 +1267,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C34">
         <v>457.43</v>
@@ -1273,7 +1279,7 @@
         <v>307.64</v>
       </c>
       <c r="F34" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1281,7 +1287,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C35">
         <v>470.43</v>
@@ -1293,7 +1299,7 @@
         <v>331.9</v>
       </c>
       <c r="F35" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1301,7 +1307,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C36">
         <v>451.29</v>
@@ -1313,7 +1319,7 @@
         <v>306.33</v>
       </c>
       <c r="F36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1321,7 +1327,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C37">
         <v>361.43</v>
@@ -1333,7 +1339,7 @@
         <v>212.45</v>
       </c>
       <c r="F37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1341,7 +1347,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C38">
         <v>276.14</v>
@@ -1353,7 +1359,7 @@
         <v>126.66</v>
       </c>
       <c r="F38" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1361,7 +1367,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C39">
         <v>214.14</v>
@@ -1373,7 +1379,7 @@
         <v>44.65</v>
       </c>
       <c r="F39" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1381,7 +1387,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C40">
         <v>160.86</v>
@@ -1393,7 +1399,7 @@
         <v>3.34</v>
       </c>
       <c r="F40" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1401,7 +1407,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C41">
         <v>123.43</v>
@@ -1413,7 +1419,7 @@
         <v>49.67</v>
       </c>
       <c r="F41" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J41">
         <v>49.67</v>
@@ -1427,7 +1433,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C42">
         <v>94.56999999999999</v>
@@ -1439,7 +1445,7 @@
         <v>91.31999999999999</v>
       </c>
       <c r="F42" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J42">
         <v>70.5</v>
@@ -1453,13 +1459,25 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C43">
+        <v>88.14</v>
       </c>
       <c r="D43">
         <v>198.97</v>
       </c>
+      <c r="E43">
+        <v>110.82</v>
+      </c>
       <c r="F43" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="J43">
+        <v>83.94</v>
+      </c>
+      <c r="K43">
+        <v>87.51000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1467,13 +1485,13 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D44">
         <v>204.67</v>
       </c>
       <c r="F44" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1481,13 +1499,13 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D45">
         <v>226.08</v>
       </c>
       <c r="F45" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1495,13 +1513,13 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D46">
         <v>240.72</v>
       </c>
       <c r="F46" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1509,13 +1527,13 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D47">
         <v>257.16</v>
       </c>
       <c r="F47" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1523,13 +1541,13 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D48">
         <v>241.19</v>
       </c>
       <c r="F48" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1537,13 +1555,13 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D49">
         <v>220.46</v>
       </c>
       <c r="F49" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1551,7 +1569,7 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C50">
         <v>94.56999999999999</v>
@@ -1563,7 +1581,7 @@
         <v>141.8</v>
       </c>
       <c r="F50" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G50">
         <v>6.03</v>
@@ -1575,10 +1593,10 @@
         <v>59.43</v>
       </c>
       <c r="J50">
-        <v>94.26000000000001</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="K50">
-        <v>95.58</v>
+        <v>103.12</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1586,13 +1604,25 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C51">
+        <v>88.14</v>
       </c>
       <c r="D51">
         <v>264.28</v>
       </c>
+      <c r="E51">
+        <v>176.14</v>
+      </c>
       <c r="F51" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="J51">
+        <v>113.95</v>
+      </c>
+      <c r="K51">
+        <v>122.46</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1600,13 +1630,13 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D52">
         <v>294.34</v>
       </c>
       <c r="F52" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1614,13 +1644,13 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D53">
         <v>295.89</v>
       </c>
       <c r="F53" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1628,13 +1658,13 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D54">
         <v>288.23</v>
       </c>
       <c r="F54" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1642,13 +1672,13 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D55">
         <v>273.6</v>
       </c>
       <c r="F55" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1656,13 +1686,13 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D56">
         <v>277.5</v>
       </c>
       <c r="F56" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1670,13 +1700,13 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D57">
         <v>257.79</v>
       </c>
       <c r="F57" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1684,13 +1714,13 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D58">
         <v>253.42</v>
       </c>
       <c r="F58" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1698,13 +1728,19 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C59">
+        <v>88.14</v>
       </c>
       <c r="D59">
         <v>264.28</v>
       </c>
+      <c r="E59">
+        <v>176.14</v>
+      </c>
       <c r="F59" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G59">
         <v>2.91</v>
@@ -1714,6 +1750,12 @@
       </c>
       <c r="I59">
         <v>88.41</v>
+      </c>
+      <c r="J59">
+        <v>124.32</v>
+      </c>
+      <c r="K59">
+        <v>135.36</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1721,13 +1763,13 @@
         <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D60">
         <v>294.34</v>
       </c>
       <c r="F60" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1735,13 +1777,13 @@
         <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D61">
         <v>295.89</v>
       </c>
       <c r="F61" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1749,13 +1791,13 @@
         <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D62">
         <v>288.23</v>
       </c>
       <c r="F62" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1763,13 +1805,13 @@
         <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D63">
         <v>273.6</v>
       </c>
       <c r="F63" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1777,55 +1819,190 @@
         <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D64">
         <v>277.5</v>
       </c>
       <c r="F64" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D65">
         <v>257.79</v>
       </c>
       <c r="F65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D66">
         <v>253.42</v>
       </c>
       <c r="F66" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D67">
         <v>292.15</v>
       </c>
       <c r="F67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" t="s">
+        <v>57</v>
+      </c>
+      <c r="D68">
+        <v>294.34</v>
+      </c>
+      <c r="F68" t="s">
+        <v>66</v>
+      </c>
+      <c r="G68">
+        <v>1.41</v>
+      </c>
+      <c r="H68">
+        <v>107.68</v>
+      </c>
+      <c r="I68">
+        <v>94.92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" t="s">
+        <v>58</v>
+      </c>
+      <c r="D69">
+        <v>295.89</v>
+      </c>
+      <c r="F69" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" t="s">
+        <v>59</v>
+      </c>
+      <c r="D70">
+        <v>288.23</v>
+      </c>
+      <c r="F70" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" t="s">
+        <v>60</v>
+      </c>
+      <c r="D71">
+        <v>273.6</v>
+      </c>
+      <c r="F71" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" t="s">
+        <v>61</v>
+      </c>
+      <c r="D72">
+        <v>277.5</v>
+      </c>
+      <c r="F72" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" t="s">
+        <v>62</v>
+      </c>
+      <c r="D73">
+        <v>257.79</v>
+      </c>
+      <c r="F73" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" t="s">
+        <v>63</v>
+      </c>
+      <c r="D74">
+        <v>253.42</v>
+      </c>
+      <c r="F74" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" t="s">
         <v>64</v>
+      </c>
+      <c r="D75">
+        <v>292.15</v>
+      </c>
+      <c r="F75" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" t="s">
+        <v>65</v>
+      </c>
+      <c r="D76">
+        <v>340.15</v>
+      </c>
+      <c r="F76" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/iran/Weekly-Deaths-Prediction r = 9.xlsx
+++ b/future_prediction/iran/Weekly-Deaths-Prediction r = 9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="69">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -61,6 +61,9 @@
     <t>2021-01-16</t>
   </si>
   <si>
+    <t>2021-01-23</t>
+  </si>
+  <si>
     <t>29 Mar -- 04 Apr 2020</t>
   </si>
   <si>
@@ -212,6 +215,9 @@
   </si>
   <si>
     <t>14 Mar -- 20 Mar 2021</t>
+  </si>
+  <si>
+    <t>21 Mar -- 27 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -572,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K76"/>
+  <dimension ref="A1:K85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,7 +624,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>133.57</v>
@@ -630,7 +636,7 @@
         <v>13.86</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G2">
         <v>0.09</v>
@@ -647,7 +653,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>129.29</v>
@@ -659,7 +665,7 @@
         <v>9.57</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -667,7 +673,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>96.29000000000001</v>
@@ -679,7 +685,7 @@
         <v>23.43</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -687,7 +693,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>88.43000000000001</v>
@@ -699,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -707,7 +713,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>72.29000000000001</v>
@@ -719,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -727,7 +733,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>61.86</v>
@@ -739,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -747,7 +753,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>49.71</v>
@@ -759,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -767,7 +773,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>60.29</v>
@@ -779,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -787,7 +793,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>53.57</v>
@@ -799,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -807,7 +813,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>67.86</v>
@@ -819,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -827,7 +833,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>74.43000000000001</v>
@@ -839,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -847,7 +853,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>111</v>
@@ -859,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -867,7 +873,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>122.43</v>
@@ -879,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -887,7 +893,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>149.14</v>
@@ -899,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -907,7 +913,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>175.29</v>
@@ -919,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -927,7 +933,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>192</v>
@@ -939,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -947,7 +953,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <v>215</v>
@@ -959,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -967,7 +973,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19">
         <v>214</v>
@@ -979,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -987,7 +993,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20">
         <v>183.14</v>
@@ -999,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1007,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>175.43</v>
@@ -1019,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1027,7 +1033,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22">
         <v>144.29</v>
@@ -1039,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1047,7 +1053,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23">
         <v>122.43</v>
@@ -1059,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1067,7 +1073,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24">
         <v>113.57</v>
@@ -1079,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1087,7 +1093,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25">
         <v>125</v>
@@ -1099,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1107,7 +1113,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26">
         <v>155.57</v>
@@ -1119,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1127,7 +1133,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27">
         <v>182.29</v>
@@ -1139,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1147,7 +1153,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28">
         <v>193.14</v>
@@ -1159,7 +1165,7 @@
         <v>84</v>
       </c>
       <c r="F28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1167,7 +1173,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>221</v>
@@ -1179,7 +1185,7 @@
         <v>69.65000000000001</v>
       </c>
       <c r="F29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1187,7 +1193,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30">
         <v>261.43</v>
@@ -1199,7 +1205,7 @@
         <v>108.14</v>
       </c>
       <c r="F30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1207,7 +1213,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31">
         <v>313.86</v>
@@ -1219,7 +1225,7 @@
         <v>164.29</v>
       </c>
       <c r="F31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1227,7 +1233,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32">
         <v>363.43</v>
@@ -1239,7 +1245,7 @@
         <v>199.55</v>
       </c>
       <c r="F32" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1247,7 +1253,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33">
         <v>424</v>
@@ -1259,7 +1265,7 @@
         <v>271.79</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1267,7 +1273,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C34">
         <v>457.43</v>
@@ -1279,7 +1285,7 @@
         <v>307.64</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1287,7 +1293,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C35">
         <v>470.43</v>
@@ -1299,7 +1305,7 @@
         <v>331.9</v>
       </c>
       <c r="F35" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1307,7 +1313,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36">
         <v>451.29</v>
@@ -1319,7 +1325,7 @@
         <v>306.33</v>
       </c>
       <c r="F36" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1327,7 +1333,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C37">
         <v>361.43</v>
@@ -1339,7 +1345,7 @@
         <v>212.45</v>
       </c>
       <c r="F37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1347,7 +1353,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C38">
         <v>276.14</v>
@@ -1359,7 +1365,7 @@
         <v>126.66</v>
       </c>
       <c r="F38" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1367,7 +1373,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C39">
         <v>214.14</v>
@@ -1379,7 +1385,7 @@
         <v>44.65</v>
       </c>
       <c r="F39" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1387,7 +1393,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C40">
         <v>160.86</v>
@@ -1399,7 +1405,7 @@
         <v>3.34</v>
       </c>
       <c r="F40" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1407,7 +1413,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C41">
         <v>123.43</v>
@@ -1419,7 +1425,7 @@
         <v>49.67</v>
       </c>
       <c r="F41" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J41">
         <v>49.67</v>
@@ -1433,7 +1439,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C42">
         <v>94.56999999999999</v>
@@ -1445,7 +1451,7 @@
         <v>91.31999999999999</v>
       </c>
       <c r="F42" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J42">
         <v>70.5</v>
@@ -1459,7 +1465,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C43">
         <v>88.14</v>
@@ -1471,7 +1477,7 @@
         <v>110.82</v>
       </c>
       <c r="F43" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J43">
         <v>83.94</v>
@@ -1485,13 +1491,25 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C44">
+        <v>82.43000000000001</v>
       </c>
       <c r="D44">
         <v>204.67</v>
       </c>
+      <c r="E44">
+        <v>122.24</v>
+      </c>
       <c r="F44" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J44">
+        <v>93.51000000000001</v>
+      </c>
+      <c r="K44">
+        <v>102.71</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1499,13 +1517,13 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D45">
         <v>226.08</v>
       </c>
       <c r="F45" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1513,13 +1531,13 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D46">
         <v>240.72</v>
       </c>
       <c r="F46" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1527,13 +1545,13 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D47">
         <v>257.16</v>
       </c>
       <c r="F47" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1541,13 +1559,13 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D48">
         <v>241.19</v>
       </c>
       <c r="F48" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1555,13 +1573,13 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D49">
         <v>220.46</v>
       </c>
       <c r="F49" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1569,7 +1587,7 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C50">
         <v>94.56999999999999</v>
@@ -1581,7 +1599,7 @@
         <v>141.8</v>
       </c>
       <c r="F50" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G50">
         <v>6.03</v>
@@ -1593,10 +1611,10 @@
         <v>59.43</v>
       </c>
       <c r="J50">
-        <v>98.40000000000001</v>
+        <v>103.17</v>
       </c>
       <c r="K50">
-        <v>103.12</v>
+        <v>112.15</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1604,7 +1622,7 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C51">
         <v>88.14</v>
@@ -1616,13 +1634,13 @@
         <v>176.14</v>
       </c>
       <c r="F51" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J51">
-        <v>113.95</v>
+        <v>115.33</v>
       </c>
       <c r="K51">
-        <v>122.46</v>
+        <v>126.77</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1630,13 +1648,25 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C52">
+        <v>82.43000000000001</v>
       </c>
       <c r="D52">
         <v>294.34</v>
       </c>
+      <c r="E52">
+        <v>211.91</v>
+      </c>
       <c r="F52" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J52">
+        <v>129.13</v>
+      </c>
+      <c r="K52">
+        <v>145.38</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1644,13 +1674,13 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D53">
         <v>295.89</v>
       </c>
       <c r="F53" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1658,13 +1688,13 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D54">
         <v>288.23</v>
       </c>
       <c r="F54" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1672,13 +1702,13 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D55">
         <v>273.6</v>
       </c>
       <c r="F55" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1686,13 +1716,13 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D56">
         <v>277.5</v>
       </c>
       <c r="F56" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1700,13 +1730,13 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D57">
         <v>257.79</v>
       </c>
       <c r="F57" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1714,13 +1744,13 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D58">
         <v>253.42</v>
       </c>
       <c r="F58" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1728,7 +1758,7 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C59">
         <v>88.14</v>
@@ -1740,7 +1770,7 @@
         <v>176.14</v>
       </c>
       <c r="F59" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G59">
         <v>2.91</v>
@@ -1752,10 +1782,10 @@
         <v>88.41</v>
       </c>
       <c r="J59">
-        <v>124.32</v>
+        <v>135.01</v>
       </c>
       <c r="K59">
-        <v>135.36</v>
+        <v>152.19</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1763,13 +1793,25 @@
         <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C60">
+        <v>82.43000000000001</v>
       </c>
       <c r="D60">
         <v>294.34</v>
       </c>
+      <c r="E60">
+        <v>211.91</v>
+      </c>
       <c r="F60" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J60">
+        <v>143.55</v>
+      </c>
+      <c r="K60">
+        <v>163.85</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1777,13 +1819,13 @@
         <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D61">
         <v>295.89</v>
       </c>
       <c r="F61" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1791,13 +1833,13 @@
         <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D62">
         <v>288.23</v>
       </c>
       <c r="F62" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1805,13 +1847,13 @@
         <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D63">
         <v>273.6</v>
       </c>
       <c r="F63" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1819,69 +1861,75 @@
         <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D64">
         <v>277.5</v>
       </c>
       <c r="F64" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D65">
         <v>257.79</v>
       </c>
       <c r="F65" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
         <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D66">
         <v>253.42</v>
       </c>
       <c r="F66" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
         <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D67">
         <v>292.15</v>
       </c>
       <c r="F67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C68">
+        <v>82.43000000000001</v>
       </c>
       <c r="D68">
         <v>294.34</v>
       </c>
+      <c r="E68">
+        <v>211.91</v>
+      </c>
       <c r="F68" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G68">
         <v>1.41</v>
@@ -1892,117 +1940,258 @@
       <c r="I68">
         <v>94.92</v>
       </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="J68">
+        <v>150.39</v>
+      </c>
+      <c r="K68">
+        <v>173.17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D69">
         <v>295.89</v>
       </c>
       <c r="F69" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D70">
         <v>288.23</v>
       </c>
       <c r="F70" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" t="s">
         <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D71">
         <v>273.6</v>
       </c>
       <c r="F71" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" t="s">
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D72">
         <v>277.5</v>
       </c>
       <c r="F72" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" t="s">
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D73">
         <v>257.79</v>
       </c>
       <c r="F73" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" t="s">
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D74">
         <v>253.42</v>
       </c>
       <c r="F74" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" t="s">
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D75">
         <v>292.15</v>
       </c>
       <c r="F75" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" t="s">
         <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D76">
         <v>340.15</v>
       </c>
       <c r="F76" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" t="s">
+        <v>59</v>
+      </c>
+      <c r="D77">
+        <v>295.89</v>
+      </c>
+      <c r="F77" t="s">
+        <v>68</v>
+      </c>
+      <c r="G77">
+        <v>1.01</v>
+      </c>
+      <c r="H77">
+        <v>122.15</v>
+      </c>
+      <c r="I77">
+        <v>100.68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" t="s">
+        <v>60</v>
+      </c>
+      <c r="D78">
+        <v>288.23</v>
+      </c>
+      <c r="F78" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" t="s">
+        <v>61</v>
+      </c>
+      <c r="D79">
+        <v>273.6</v>
+      </c>
+      <c r="F79" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" t="s">
+        <v>62</v>
+      </c>
+      <c r="D80">
+        <v>277.5</v>
+      </c>
+      <c r="F80" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" t="s">
+        <v>63</v>
+      </c>
+      <c r="D81">
+        <v>257.79</v>
+      </c>
+      <c r="F81" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" t="s">
+        <v>64</v>
+      </c>
+      <c r="D82">
+        <v>253.42</v>
+      </c>
+      <c r="F82" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83" t="s">
+        <v>65</v>
+      </c>
+      <c r="D83">
+        <v>292.15</v>
+      </c>
+      <c r="F83" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" t="s">
         <v>66</v>
+      </c>
+      <c r="D84">
+        <v>340.15</v>
+      </c>
+      <c r="F84" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" t="s">
+        <v>67</v>
+      </c>
+      <c r="D85">
+        <v>309.29</v>
+      </c>
+      <c r="F85" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/iran/Weekly-Deaths-Prediction r = 9.xlsx
+++ b/future_prediction/iran/Weekly-Deaths-Prediction r = 9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="71">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -64,6 +64,9 @@
     <t>2021-01-23</t>
   </si>
   <si>
+    <t>2021-01-30</t>
+  </si>
+  <si>
     <t>29 Mar -- 04 Apr 2020</t>
   </si>
   <si>
@@ -218,6 +221,9 @@
   </si>
   <si>
     <t>21 Mar -- 27 Mar 2021</t>
+  </si>
+  <si>
+    <t>28 Mar -- 03 Apr 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -578,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K85"/>
+  <dimension ref="A1:K94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,7 +630,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>133.57</v>
@@ -636,7 +642,7 @@
         <v>13.86</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G2">
         <v>0.09</v>
@@ -653,7 +659,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>129.29</v>
@@ -665,7 +671,7 @@
         <v>9.57</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -673,7 +679,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>96.29000000000001</v>
@@ -685,7 +691,7 @@
         <v>23.43</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -693,7 +699,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>88.43000000000001</v>
@@ -705,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -713,7 +719,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>72.29000000000001</v>
@@ -725,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -733,7 +739,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>61.86</v>
@@ -745,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -753,7 +759,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>49.71</v>
@@ -765,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -773,7 +779,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>60.29</v>
@@ -785,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -793,7 +799,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>53.57</v>
@@ -805,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -813,7 +819,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>67.86</v>
@@ -825,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -833,7 +839,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>74.43000000000001</v>
@@ -845,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -853,7 +859,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>111</v>
@@ -865,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -873,7 +879,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>122.43</v>
@@ -885,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -893,7 +899,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>149.14</v>
@@ -905,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -913,7 +919,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>175.29</v>
@@ -925,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -933,7 +939,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>192</v>
@@ -945,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -953,7 +959,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>215</v>
@@ -965,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -973,7 +979,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>214</v>
@@ -985,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -993,7 +999,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>183.14</v>
@@ -1005,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1013,7 +1019,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21">
         <v>175.43</v>
@@ -1025,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1033,7 +1039,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22">
         <v>144.29</v>
@@ -1045,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1053,7 +1059,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23">
         <v>122.43</v>
@@ -1065,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1073,7 +1079,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <v>113.57</v>
@@ -1085,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1093,7 +1099,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25">
         <v>125</v>
@@ -1105,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1113,7 +1119,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26">
         <v>155.57</v>
@@ -1125,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1133,7 +1139,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27">
         <v>182.29</v>
@@ -1145,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1153,7 +1159,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28">
         <v>193.14</v>
@@ -1165,7 +1171,7 @@
         <v>84</v>
       </c>
       <c r="F28" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1173,7 +1179,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29">
         <v>221</v>
@@ -1185,7 +1191,7 @@
         <v>69.65000000000001</v>
       </c>
       <c r="F29" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1193,7 +1199,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30">
         <v>261.43</v>
@@ -1205,7 +1211,7 @@
         <v>108.14</v>
       </c>
       <c r="F30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1213,7 +1219,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31">
         <v>313.86</v>
@@ -1225,7 +1231,7 @@
         <v>164.29</v>
       </c>
       <c r="F31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1233,7 +1239,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32">
         <v>363.43</v>
@@ -1245,7 +1251,7 @@
         <v>199.55</v>
       </c>
       <c r="F32" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1253,7 +1259,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33">
         <v>424</v>
@@ -1265,7 +1271,7 @@
         <v>271.79</v>
       </c>
       <c r="F33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1273,7 +1279,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34">
         <v>457.43</v>
@@ -1285,7 +1291,7 @@
         <v>307.64</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1293,7 +1299,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35">
         <v>470.43</v>
@@ -1305,7 +1311,7 @@
         <v>331.9</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1313,7 +1319,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36">
         <v>451.29</v>
@@ -1325,7 +1331,7 @@
         <v>306.33</v>
       </c>
       <c r="F36" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1333,7 +1339,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37">
         <v>361.43</v>
@@ -1345,7 +1351,7 @@
         <v>212.45</v>
       </c>
       <c r="F37" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1353,7 +1359,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C38">
         <v>276.14</v>
@@ -1365,7 +1371,7 @@
         <v>126.66</v>
       </c>
       <c r="F38" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1373,7 +1379,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C39">
         <v>214.14</v>
@@ -1385,7 +1391,7 @@
         <v>44.65</v>
       </c>
       <c r="F39" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1393,7 +1399,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C40">
         <v>160.86</v>
@@ -1405,7 +1411,7 @@
         <v>3.34</v>
       </c>
       <c r="F40" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1413,7 +1419,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C41">
         <v>123.43</v>
@@ -1425,7 +1431,7 @@
         <v>49.67</v>
       </c>
       <c r="F41" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J41">
         <v>49.67</v>
@@ -1439,7 +1445,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C42">
         <v>94.56999999999999</v>
@@ -1451,7 +1457,7 @@
         <v>91.31999999999999</v>
       </c>
       <c r="F42" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J42">
         <v>70.5</v>
@@ -1465,7 +1471,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C43">
         <v>88.14</v>
@@ -1477,7 +1483,7 @@
         <v>110.82</v>
       </c>
       <c r="F43" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J43">
         <v>83.94</v>
@@ -1491,7 +1497,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C44">
         <v>82.43000000000001</v>
@@ -1503,7 +1509,7 @@
         <v>122.24</v>
       </c>
       <c r="F44" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J44">
         <v>93.51000000000001</v>
@@ -1517,13 +1523,25 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C45">
+        <v>85</v>
       </c>
       <c r="D45">
         <v>226.08</v>
       </c>
+      <c r="E45">
+        <v>141.08</v>
+      </c>
       <c r="F45" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="J45">
+        <v>103.03</v>
+      </c>
+      <c r="K45">
+        <v>115.36</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1531,13 +1549,13 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D46">
         <v>240.72</v>
       </c>
       <c r="F46" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1545,13 +1563,13 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D47">
         <v>257.16</v>
       </c>
       <c r="F47" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1559,13 +1577,13 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D48">
         <v>241.19</v>
       </c>
       <c r="F48" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1573,13 +1591,13 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D49">
         <v>220.46</v>
       </c>
       <c r="F49" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1587,7 +1605,7 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C50">
         <v>94.56999999999999</v>
@@ -1599,7 +1617,7 @@
         <v>141.8</v>
       </c>
       <c r="F50" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G50">
         <v>6.03</v>
@@ -1611,10 +1629,10 @@
         <v>59.43</v>
       </c>
       <c r="J50">
-        <v>103.17</v>
+        <v>109.49</v>
       </c>
       <c r="K50">
-        <v>112.15</v>
+        <v>121.12</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1622,7 +1640,7 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C51">
         <v>88.14</v>
@@ -1634,13 +1652,13 @@
         <v>176.14</v>
       </c>
       <c r="F51" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J51">
-        <v>115.33</v>
+        <v>119.01</v>
       </c>
       <c r="K51">
-        <v>126.77</v>
+        <v>132.37</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1648,7 +1666,7 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C52">
         <v>82.43000000000001</v>
@@ -1660,13 +1678,13 @@
         <v>211.91</v>
       </c>
       <c r="F52" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J52">
-        <v>129.13</v>
+        <v>130.62</v>
       </c>
       <c r="K52">
-        <v>145.38</v>
+        <v>147.96</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1674,13 +1692,25 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C53">
+        <v>85</v>
       </c>
       <c r="D53">
         <v>295.89</v>
       </c>
+      <c r="E53">
+        <v>210.89</v>
+      </c>
       <c r="F53" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="J53">
+        <v>139.54</v>
+      </c>
+      <c r="K53">
+        <v>159.08</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1688,13 +1718,13 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D54">
         <v>288.23</v>
       </c>
       <c r="F54" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1702,13 +1732,13 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D55">
         <v>273.6</v>
       </c>
       <c r="F55" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1716,13 +1746,13 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D56">
         <v>277.5</v>
       </c>
       <c r="F56" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1730,13 +1760,13 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D57">
         <v>257.79</v>
       </c>
       <c r="F57" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1744,13 +1774,13 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D58">
         <v>253.42</v>
       </c>
       <c r="F58" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1758,7 +1788,7 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C59">
         <v>88.14</v>
@@ -1770,7 +1800,7 @@
         <v>176.14</v>
       </c>
       <c r="F59" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G59">
         <v>2.91</v>
@@ -1782,10 +1812,10 @@
         <v>88.41</v>
       </c>
       <c r="J59">
-        <v>135.01</v>
+        <v>143.2</v>
       </c>
       <c r="K59">
-        <v>152.19</v>
+        <v>163.16</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1793,7 +1823,7 @@
         <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C60">
         <v>82.43000000000001</v>
@@ -1805,13 +1835,13 @@
         <v>211.91</v>
       </c>
       <c r="F60" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J60">
-        <v>143.55</v>
+        <v>149.45</v>
       </c>
       <c r="K60">
-        <v>163.85</v>
+        <v>171.7</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1819,13 +1849,25 @@
         <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C61">
+        <v>85</v>
       </c>
       <c r="D61">
         <v>295.89</v>
       </c>
+      <c r="E61">
+        <v>210.89</v>
+      </c>
       <c r="F61" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="J61">
+        <v>154.57</v>
+      </c>
+      <c r="K61">
+        <v>178.07</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1833,13 +1875,13 @@
         <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D62">
         <v>288.23</v>
       </c>
       <c r="F62" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1847,13 +1889,13 @@
         <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D63">
         <v>273.6</v>
       </c>
       <c r="F63" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1861,13 +1903,13 @@
         <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D64">
         <v>277.5</v>
       </c>
       <c r="F64" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -1875,13 +1917,13 @@
         <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D65">
         <v>257.79</v>
       </c>
       <c r="F65" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -1889,13 +1931,13 @@
         <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D66">
         <v>253.42</v>
       </c>
       <c r="F66" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -1903,13 +1945,13 @@
         <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D67">
         <v>292.15</v>
       </c>
       <c r="F67" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -1917,7 +1959,7 @@
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C68">
         <v>82.43000000000001</v>
@@ -1929,7 +1971,7 @@
         <v>211.91</v>
       </c>
       <c r="F68" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G68">
         <v>1.41</v>
@@ -1941,10 +1983,10 @@
         <v>94.92</v>
       </c>
       <c r="J68">
-        <v>150.39</v>
+        <v>158.98</v>
       </c>
       <c r="K68">
-        <v>173.17</v>
+        <v>184.14</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -1952,13 +1994,25 @@
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C69">
+        <v>85</v>
       </c>
       <c r="D69">
         <v>295.89</v>
       </c>
+      <c r="E69">
+        <v>210.89</v>
+      </c>
       <c r="F69" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="J69">
+        <v>162.69</v>
+      </c>
+      <c r="K69">
+        <v>188.71</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -1966,13 +2020,13 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D70">
         <v>288.23</v>
       </c>
       <c r="F70" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -1980,13 +2034,13 @@
         <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D71">
         <v>273.6</v>
       </c>
       <c r="F71" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -1994,13 +2048,13 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D72">
         <v>277.5</v>
       </c>
       <c r="F72" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2008,13 +2062,13 @@
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D73">
         <v>257.79</v>
       </c>
       <c r="F73" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2022,13 +2076,13 @@
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D74">
         <v>253.42</v>
       </c>
       <c r="F74" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2036,13 +2090,13 @@
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D75">
         <v>292.15</v>
       </c>
       <c r="F75" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2050,13 +2104,13 @@
         <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D76">
         <v>340.15</v>
       </c>
       <c r="F76" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -2064,13 +2118,19 @@
         <v>15</v>
       </c>
       <c r="B77" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C77">
+        <v>85</v>
       </c>
       <c r="D77">
         <v>295.89</v>
       </c>
+      <c r="E77">
+        <v>210.89</v>
+      </c>
       <c r="F77" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G77">
         <v>1.01</v>
@@ -2080,6 +2140,12 @@
       </c>
       <c r="I77">
         <v>100.68</v>
+      </c>
+      <c r="J77">
+        <v>165.9</v>
+      </c>
+      <c r="K77">
+        <v>192.67</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -2087,13 +2153,13 @@
         <v>15</v>
       </c>
       <c r="B78" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D78">
         <v>288.23</v>
       </c>
       <c r="F78" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -2101,13 +2167,13 @@
         <v>15</v>
       </c>
       <c r="B79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D79">
         <v>273.6</v>
       </c>
       <c r="F79" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -2115,83 +2181,215 @@
         <v>15</v>
       </c>
       <c r="B80" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D80">
         <v>277.5</v>
       </c>
       <c r="F80" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D81">
         <v>257.79</v>
       </c>
       <c r="F81" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>15</v>
       </c>
       <c r="B82" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D82">
         <v>253.42</v>
       </c>
       <c r="F82" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>15</v>
       </c>
       <c r="B83" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D83">
         <v>292.15</v>
       </c>
       <c r="F83" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
         <v>15</v>
       </c>
       <c r="B84" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D84">
         <v>340.15</v>
       </c>
       <c r="F84" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
         <v>15</v>
       </c>
       <c r="B85" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D85">
         <v>309.29</v>
       </c>
       <c r="F85" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86" t="s">
+        <v>61</v>
+      </c>
+      <c r="D86">
+        <v>261.13</v>
+      </c>
+      <c r="F86" t="s">
+        <v>70</v>
+      </c>
+      <c r="H86">
+        <v>179.42</v>
+      </c>
+      <c r="I86">
+        <v>152.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87" t="s">
+        <v>62</v>
+      </c>
+      <c r="D87">
+        <v>274.49</v>
+      </c>
+      <c r="F87" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88" t="s">
+        <v>63</v>
+      </c>
+      <c r="D88">
+        <v>253.06</v>
+      </c>
+      <c r="F88" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" t="s">
+        <v>64</v>
+      </c>
+      <c r="D89">
+        <v>250.62</v>
+      </c>
+      <c r="F89" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
+        <v>16</v>
+      </c>
+      <c r="B90" t="s">
+        <v>65</v>
+      </c>
+      <c r="D90">
+        <v>248.49</v>
+      </c>
+      <c r="F90" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>16</v>
+      </c>
+      <c r="B91" t="s">
+        <v>66</v>
+      </c>
+      <c r="D91">
+        <v>302.31</v>
+      </c>
+      <c r="F91" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" t="s">
+        <v>16</v>
+      </c>
+      <c r="B92" t="s">
+        <v>67</v>
+      </c>
+      <c r="D92">
+        <v>304.83</v>
+      </c>
+      <c r="F92" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
+        <v>16</v>
+      </c>
+      <c r="B93" t="s">
         <v>68</v>
+      </c>
+      <c r="D93">
+        <v>274.46</v>
+      </c>
+      <c r="F93" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
+        <v>16</v>
+      </c>
+      <c r="B94" t="s">
+        <v>69</v>
+      </c>
+      <c r="D94">
+        <v>221.92</v>
+      </c>
+      <c r="F94" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/iran/Weekly-Deaths-Prediction r = 9.xlsx
+++ b/future_prediction/iran/Weekly-Deaths-Prediction r = 9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="75">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -67,6 +67,12 @@
     <t>2021-01-30</t>
   </si>
   <si>
+    <t>2021-02-06</t>
+  </si>
+  <si>
+    <t>2021-02-13</t>
+  </si>
+  <si>
     <t>29 Mar -- 04 Apr 2020</t>
   </si>
   <si>
@@ -224,6 +230,12 @@
   </si>
   <si>
     <t>28 Mar -- 03 Apr 2021</t>
+  </si>
+  <si>
+    <t>04 Apr -- 10 Apr 2021</t>
+  </si>
+  <si>
+    <t>11 Apr -- 17 Apr 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -584,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K94"/>
+  <dimension ref="A1:K112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,7 +642,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>133.57</v>
@@ -642,7 +654,7 @@
         <v>13.86</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G2">
         <v>0.09</v>
@@ -659,7 +671,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>129.29</v>
@@ -671,7 +683,7 @@
         <v>9.57</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -679,7 +691,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>96.29000000000001</v>
@@ -691,7 +703,7 @@
         <v>23.43</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -699,7 +711,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>88.43000000000001</v>
@@ -711,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -719,7 +731,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>72.29000000000001</v>
@@ -731,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -739,7 +751,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>61.86</v>
@@ -751,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -759,7 +771,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>49.71</v>
@@ -771,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -779,7 +791,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>60.29</v>
@@ -791,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -799,7 +811,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>53.57</v>
@@ -811,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -819,7 +831,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>67.86</v>
@@ -831,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -839,7 +851,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>74.43000000000001</v>
@@ -851,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -859,7 +871,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>111</v>
@@ -871,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -879,7 +891,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C14">
         <v>122.43</v>
@@ -891,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -899,7 +911,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>149.14</v>
@@ -911,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -919,7 +931,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16">
         <v>175.29</v>
@@ -931,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -939,7 +951,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C17">
         <v>192</v>
@@ -951,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -959,7 +971,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>215</v>
@@ -971,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -979,7 +991,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C19">
         <v>214</v>
@@ -991,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -999,7 +1011,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C20">
         <v>183.14</v>
@@ -1011,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1019,7 +1031,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C21">
         <v>175.43</v>
@@ -1031,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1039,7 +1051,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C22">
         <v>144.29</v>
@@ -1051,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1059,7 +1071,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C23">
         <v>122.43</v>
@@ -1071,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1079,7 +1091,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C24">
         <v>113.57</v>
@@ -1091,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1099,7 +1111,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C25">
         <v>125</v>
@@ -1111,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1119,7 +1131,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C26">
         <v>155.57</v>
@@ -1131,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1139,7 +1151,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C27">
         <v>182.29</v>
@@ -1151,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1159,7 +1171,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C28">
         <v>193.14</v>
@@ -1171,7 +1183,7 @@
         <v>84</v>
       </c>
       <c r="F28" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1179,7 +1191,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C29">
         <v>221</v>
@@ -1191,7 +1203,7 @@
         <v>69.65000000000001</v>
       </c>
       <c r="F29" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1199,7 +1211,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C30">
         <v>261.43</v>
@@ -1211,7 +1223,7 @@
         <v>108.14</v>
       </c>
       <c r="F30" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1219,7 +1231,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C31">
         <v>313.86</v>
@@ -1231,7 +1243,7 @@
         <v>164.29</v>
       </c>
       <c r="F31" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1239,7 +1251,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C32">
         <v>363.43</v>
@@ -1251,7 +1263,7 @@
         <v>199.55</v>
       </c>
       <c r="F32" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1259,7 +1271,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C33">
         <v>424</v>
@@ -1271,7 +1283,7 @@
         <v>271.79</v>
       </c>
       <c r="F33" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1279,7 +1291,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C34">
         <v>457.43</v>
@@ -1291,7 +1303,7 @@
         <v>307.64</v>
       </c>
       <c r="F34" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1299,7 +1311,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C35">
         <v>470.43</v>
@@ -1311,7 +1323,7 @@
         <v>331.9</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1319,7 +1331,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C36">
         <v>451.29</v>
@@ -1331,7 +1343,7 @@
         <v>306.33</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1339,7 +1351,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C37">
         <v>361.43</v>
@@ -1351,7 +1363,7 @@
         <v>212.45</v>
       </c>
       <c r="F37" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1359,7 +1371,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C38">
         <v>276.14</v>
@@ -1371,7 +1383,7 @@
         <v>126.66</v>
       </c>
       <c r="F38" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1379,7 +1391,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C39">
         <v>214.14</v>
@@ -1391,7 +1403,7 @@
         <v>44.65</v>
       </c>
       <c r="F39" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1399,7 +1411,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C40">
         <v>160.86</v>
@@ -1411,7 +1423,7 @@
         <v>3.34</v>
       </c>
       <c r="F40" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1419,7 +1431,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C41">
         <v>123.43</v>
@@ -1431,7 +1443,7 @@
         <v>49.67</v>
       </c>
       <c r="F41" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J41">
         <v>49.67</v>
@@ -1445,7 +1457,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C42">
         <v>94.56999999999999</v>
@@ -1457,7 +1469,7 @@
         <v>91.31999999999999</v>
       </c>
       <c r="F42" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J42">
         <v>70.5</v>
@@ -1471,7 +1483,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C43">
         <v>88.14</v>
@@ -1483,7 +1495,7 @@
         <v>110.82</v>
       </c>
       <c r="F43" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J43">
         <v>83.94</v>
@@ -1497,7 +1509,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C44">
         <v>82.43000000000001</v>
@@ -1509,7 +1521,7 @@
         <v>122.24</v>
       </c>
       <c r="F44" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J44">
         <v>93.51000000000001</v>
@@ -1523,7 +1535,7 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C45">
         <v>85</v>
@@ -1535,7 +1547,7 @@
         <v>141.08</v>
       </c>
       <c r="F45" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J45">
         <v>103.03</v>
@@ -1549,13 +1561,25 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="C46">
+        <v>74.70999999999999</v>
       </c>
       <c r="D46">
         <v>240.72</v>
       </c>
+      <c r="E46">
+        <v>166</v>
+      </c>
       <c r="F46" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="J46">
+        <v>113.52</v>
+      </c>
+      <c r="K46">
+        <v>133.16</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1563,13 +1587,25 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="C47">
+        <v>67.29000000000001</v>
       </c>
       <c r="D47">
         <v>257.16</v>
       </c>
+      <c r="E47">
+        <v>189.88</v>
+      </c>
       <c r="F47" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="J47">
+        <v>124.43</v>
+      </c>
+      <c r="K47">
+        <v>154.46</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1577,13 +1613,13 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D48">
         <v>241.19</v>
       </c>
       <c r="F48" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1591,13 +1627,13 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D49">
         <v>220.46</v>
       </c>
       <c r="F49" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1605,7 +1641,7 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C50">
         <v>94.56999999999999</v>
@@ -1617,7 +1653,7 @@
         <v>141.8</v>
       </c>
       <c r="F50" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G50">
         <v>6.03</v>
@@ -1629,10 +1665,10 @@
         <v>59.43</v>
       </c>
       <c r="J50">
-        <v>109.49</v>
+        <v>126.6</v>
       </c>
       <c r="K50">
-        <v>121.12</v>
+        <v>153.89</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1640,7 +1676,7 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C51">
         <v>88.14</v>
@@ -1652,13 +1688,13 @@
         <v>176.14</v>
       </c>
       <c r="F51" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J51">
-        <v>119.01</v>
+        <v>132.11</v>
       </c>
       <c r="K51">
-        <v>132.37</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1666,7 +1702,7 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C52">
         <v>82.43000000000001</v>
@@ -1678,13 +1714,13 @@
         <v>211.91</v>
       </c>
       <c r="F52" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J52">
-        <v>130.62</v>
+        <v>140.09</v>
       </c>
       <c r="K52">
-        <v>147.96</v>
+        <v>168.8</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1692,7 +1728,7 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C53">
         <v>85</v>
@@ -1704,13 +1740,13 @@
         <v>210.89</v>
       </c>
       <c r="F53" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J53">
-        <v>139.54</v>
+        <v>146.52</v>
       </c>
       <c r="K53">
-        <v>159.08</v>
+        <v>176.01</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1718,13 +1754,25 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="C54">
+        <v>74.70999999999999</v>
       </c>
       <c r="D54">
         <v>288.23</v>
       </c>
+      <c r="E54">
+        <v>213.51</v>
+      </c>
       <c r="F54" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="J54">
+        <v>152.1</v>
+      </c>
+      <c r="K54">
+        <v>185.16</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1732,13 +1780,25 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="C55">
+        <v>67.29000000000001</v>
       </c>
       <c r="D55">
         <v>273.6</v>
       </c>
+      <c r="E55">
+        <v>206.31</v>
+      </c>
       <c r="F55" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="J55">
+        <v>156.27</v>
+      </c>
+      <c r="K55">
+        <v>194.5</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1746,13 +1806,13 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D56">
         <v>277.5</v>
       </c>
       <c r="F56" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1760,13 +1820,13 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D57">
         <v>257.79</v>
       </c>
       <c r="F57" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1774,13 +1834,13 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D58">
         <v>253.42</v>
       </c>
       <c r="F58" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1788,7 +1848,7 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C59">
         <v>88.14</v>
@@ -1800,7 +1860,7 @@
         <v>176.14</v>
       </c>
       <c r="F59" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G59">
         <v>2.91</v>
@@ -1812,10 +1872,10 @@
         <v>88.41</v>
       </c>
       <c r="J59">
-        <v>143.2</v>
+        <v>157.69</v>
       </c>
       <c r="K59">
-        <v>163.16</v>
+        <v>194.88</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1823,7 +1883,7 @@
         <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C60">
         <v>82.43000000000001</v>
@@ -1835,13 +1895,13 @@
         <v>211.91</v>
       </c>
       <c r="F60" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J60">
-        <v>149.45</v>
+        <v>161.31</v>
       </c>
       <c r="K60">
-        <v>171.7</v>
+        <v>199.03</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1849,7 +1909,7 @@
         <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C61">
         <v>85</v>
@@ -1861,13 +1921,13 @@
         <v>210.89</v>
       </c>
       <c r="F61" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J61">
-        <v>154.57</v>
+        <v>164.41</v>
       </c>
       <c r="K61">
-        <v>178.07</v>
+        <v>202.1</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1875,13 +1935,25 @@
         <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="C62">
+        <v>74.70999999999999</v>
       </c>
       <c r="D62">
         <v>288.23</v>
       </c>
+      <c r="E62">
+        <v>213.51</v>
+      </c>
       <c r="F62" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="J62">
+        <v>167.3</v>
+      </c>
+      <c r="K62">
+        <v>207.02</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1889,13 +1961,25 @@
         <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="C63">
+        <v>67.29000000000001</v>
       </c>
       <c r="D63">
         <v>273.6</v>
       </c>
+      <c r="E63">
+        <v>206.31</v>
+      </c>
       <c r="F63" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="J63">
+        <v>169.46</v>
+      </c>
+      <c r="K63">
+        <v>212.55</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1903,13 +1987,13 @@
         <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D64">
         <v>277.5</v>
       </c>
       <c r="F64" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -1917,13 +2001,13 @@
         <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D65">
         <v>257.79</v>
       </c>
       <c r="F65" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -1931,13 +2015,13 @@
         <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D66">
         <v>253.42</v>
       </c>
       <c r="F66" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -1945,13 +2029,13 @@
         <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D67">
         <v>292.15</v>
       </c>
       <c r="F67" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -1959,7 +2043,7 @@
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C68">
         <v>82.43000000000001</v>
@@ -1971,7 +2055,7 @@
         <v>211.91</v>
       </c>
       <c r="F68" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G68">
         <v>1.41</v>
@@ -1983,10 +2067,10 @@
         <v>94.92</v>
       </c>
       <c r="J68">
-        <v>158.98</v>
+        <v>171.7</v>
       </c>
       <c r="K68">
-        <v>184.14</v>
+        <v>214.9</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -1994,7 +2078,7 @@
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C69">
         <v>85</v>
@@ -2006,13 +2090,13 @@
         <v>210.89</v>
       </c>
       <c r="F69" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J69">
-        <v>162.69</v>
+        <v>173.66</v>
       </c>
       <c r="K69">
-        <v>188.71</v>
+        <v>216.56</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2020,13 +2104,25 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="C70">
+        <v>74.70999999999999</v>
       </c>
       <c r="D70">
         <v>288.23</v>
       </c>
+      <c r="E70">
+        <v>213.51</v>
+      </c>
       <c r="F70" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="J70">
+        <v>175.55</v>
+      </c>
+      <c r="K70">
+        <v>219.85</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2034,13 +2130,25 @@
         <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="C71">
+        <v>67.29000000000001</v>
       </c>
       <c r="D71">
         <v>273.6</v>
       </c>
+      <c r="E71">
+        <v>206.31</v>
+      </c>
       <c r="F71" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="J71">
+        <v>176.95</v>
+      </c>
+      <c r="K71">
+        <v>223.8</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2048,13 +2156,13 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D72">
         <v>277.5</v>
       </c>
       <c r="F72" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2062,13 +2170,13 @@
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D73">
         <v>257.79</v>
       </c>
       <c r="F73" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2076,13 +2184,13 @@
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D74">
         <v>253.42</v>
       </c>
       <c r="F74" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2090,13 +2198,13 @@
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D75">
         <v>292.15</v>
       </c>
       <c r="F75" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2104,13 +2212,13 @@
         <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D76">
         <v>340.15</v>
       </c>
       <c r="F76" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -2118,7 +2226,7 @@
         <v>15</v>
       </c>
       <c r="B77" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C77">
         <v>85</v>
@@ -2130,7 +2238,7 @@
         <v>210.89</v>
       </c>
       <c r="F77" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G77">
         <v>1.01</v>
@@ -2142,10 +2250,10 @@
         <v>100.68</v>
       </c>
       <c r="J77">
-        <v>165.9</v>
+        <v>178.43</v>
       </c>
       <c r="K77">
-        <v>192.67</v>
+        <v>224.85</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -2153,13 +2261,25 @@
         <v>15</v>
       </c>
       <c r="B78" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="C78">
+        <v>74.70999999999999</v>
       </c>
       <c r="D78">
         <v>288.23</v>
       </c>
+      <c r="E78">
+        <v>213.51</v>
+      </c>
       <c r="F78" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="J78">
+        <v>179.89</v>
+      </c>
+      <c r="K78">
+        <v>227.39</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -2167,13 +2287,25 @@
         <v>15</v>
       </c>
       <c r="B79" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="C79">
+        <v>67.29000000000001</v>
       </c>
       <c r="D79">
         <v>273.6</v>
       </c>
+      <c r="E79">
+        <v>206.31</v>
+      </c>
       <c r="F79" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="J79">
+        <v>180.95</v>
+      </c>
+      <c r="K79">
+        <v>230.56</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -2181,97 +2313,103 @@
         <v>15</v>
       </c>
       <c r="B80" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D80">
         <v>277.5</v>
       </c>
       <c r="F80" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" t="s">
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D81">
         <v>257.79</v>
       </c>
       <c r="F81" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" t="s">
         <v>15</v>
       </c>
       <c r="B82" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D82">
         <v>253.42</v>
       </c>
       <c r="F82" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" t="s">
         <v>15</v>
       </c>
       <c r="B83" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D83">
         <v>292.15</v>
       </c>
       <c r="F83" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" t="s">
         <v>15</v>
       </c>
       <c r="B84" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D84">
         <v>340.15</v>
       </c>
       <c r="F84" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" t="s">
         <v>15</v>
       </c>
       <c r="B85" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D85">
         <v>309.29</v>
       </c>
       <c r="F85" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" t="s">
         <v>16</v>
       </c>
       <c r="B86" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="C86">
+        <v>74.70999999999999</v>
       </c>
       <c r="D86">
         <v>261.13</v>
       </c>
+      <c r="E86">
+        <v>186.41</v>
+      </c>
       <c r="F86" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H86">
         <v>179.42</v>
@@ -2279,117 +2417,417 @@
       <c r="I86">
         <v>152.5</v>
       </c>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="J86">
+        <v>181.16</v>
+      </c>
+      <c r="K86">
+        <v>231.29</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" t="s">
         <v>16</v>
       </c>
       <c r="B87" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="C87">
+        <v>67.29000000000001</v>
       </c>
       <c r="D87">
         <v>274.49</v>
       </c>
+      <c r="E87">
+        <v>207.2</v>
+      </c>
       <c r="F87" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J87">
+        <v>182.12</v>
+      </c>
+      <c r="K87">
+        <v>234.13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" t="s">
         <v>16</v>
       </c>
       <c r="B88" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D88">
         <v>253.06</v>
       </c>
       <c r="F88" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" t="s">
         <v>16</v>
       </c>
       <c r="B89" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D89">
         <v>250.62</v>
       </c>
       <c r="F89" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" t="s">
         <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D90">
         <v>248.49</v>
       </c>
       <c r="F90" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" t="s">
         <v>16</v>
       </c>
       <c r="B91" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D91">
         <v>302.31</v>
       </c>
       <c r="F91" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" t="s">
         <v>16</v>
       </c>
       <c r="B92" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D92">
         <v>304.83</v>
       </c>
       <c r="F92" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" t="s">
         <v>16</v>
       </c>
       <c r="B93" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D93">
         <v>274.46</v>
       </c>
       <c r="F93" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" t="s">
         <v>16</v>
       </c>
       <c r="B94" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D94">
         <v>221.92</v>
       </c>
       <c r="F94" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" t="s">
+        <v>17</v>
+      </c>
+      <c r="B95" t="s">
+        <v>64</v>
+      </c>
+      <c r="C95">
+        <v>67.29000000000001</v>
+      </c>
+      <c r="D95">
+        <v>247.13</v>
+      </c>
+      <c r="E95">
+        <v>179.85</v>
+      </c>
+      <c r="F95" t="s">
+        <v>74</v>
+      </c>
+      <c r="G95">
+        <v>1.13</v>
+      </c>
+      <c r="H95">
+        <v>222.09</v>
+      </c>
+      <c r="I95">
+        <v>165.94</v>
+      </c>
+      <c r="J95">
+        <v>182.04</v>
+      </c>
+      <c r="K95">
+        <v>235.31</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" t="s">
+        <v>17</v>
+      </c>
+      <c r="B96" t="s">
+        <v>65</v>
+      </c>
+      <c r="D96">
+        <v>242.85</v>
+      </c>
+      <c r="F96" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" t="s">
+        <v>17</v>
+      </c>
+      <c r="B97" t="s">
+        <v>66</v>
+      </c>
+      <c r="D97">
+        <v>245.76</v>
+      </c>
+      <c r="F97" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
+        <v>17</v>
+      </c>
+      <c r="B98" t="s">
+        <v>67</v>
+      </c>
+      <c r="D98">
+        <v>240.77</v>
+      </c>
+      <c r="F98" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
+        <v>17</v>
+      </c>
+      <c r="B99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99">
+        <v>230.72</v>
+      </c>
+      <c r="F99" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
+        <v>17</v>
+      </c>
+      <c r="B100" t="s">
+        <v>69</v>
+      </c>
+      <c r="D100">
+        <v>229.38</v>
+      </c>
+      <c r="F100" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" t="s">
+        <v>17</v>
+      </c>
+      <c r="B101" t="s">
         <v>70</v>
+      </c>
+      <c r="D101">
+        <v>215.32</v>
+      </c>
+      <c r="F101" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" t="s">
+        <v>17</v>
+      </c>
+      <c r="B102" t="s">
+        <v>71</v>
+      </c>
+      <c r="D102">
+        <v>225.52</v>
+      </c>
+      <c r="F102" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" t="s">
+        <v>17</v>
+      </c>
+      <c r="B103" t="s">
+        <v>72</v>
+      </c>
+      <c r="D103">
+        <v>216.94</v>
+      </c>
+      <c r="F103" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" t="s">
+        <v>18</v>
+      </c>
+      <c r="B104" t="s">
+        <v>65</v>
+      </c>
+      <c r="D104">
+        <v>247.15</v>
+      </c>
+      <c r="F104" t="s">
+        <v>74</v>
+      </c>
+      <c r="G104">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H104">
+        <v>234.41</v>
+      </c>
+      <c r="I104">
+        <v>157.72</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" t="s">
+        <v>18</v>
+      </c>
+      <c r="B105" t="s">
+        <v>66</v>
+      </c>
+      <c r="D105">
+        <v>250.48</v>
+      </c>
+      <c r="F105" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" t="s">
+        <v>18</v>
+      </c>
+      <c r="B106" t="s">
+        <v>67</v>
+      </c>
+      <c r="D106">
+        <v>251.66</v>
+      </c>
+      <c r="F106" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" t="s">
+        <v>18</v>
+      </c>
+      <c r="B107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107">
+        <v>242.34</v>
+      </c>
+      <c r="F107" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" t="s">
+        <v>18</v>
+      </c>
+      <c r="B108" t="s">
+        <v>69</v>
+      </c>
+      <c r="D108">
+        <v>236.95</v>
+      </c>
+      <c r="F108" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" t="s">
+        <v>18</v>
+      </c>
+      <c r="B109" t="s">
+        <v>70</v>
+      </c>
+      <c r="D109">
+        <v>232.74</v>
+      </c>
+      <c r="F109" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" t="s">
+        <v>18</v>
+      </c>
+      <c r="B110" t="s">
+        <v>71</v>
+      </c>
+      <c r="D110">
+        <v>229.51</v>
+      </c>
+      <c r="F110" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" t="s">
+        <v>18</v>
+      </c>
+      <c r="B111" t="s">
+        <v>72</v>
+      </c>
+      <c r="D111">
+        <v>229.09</v>
+      </c>
+      <c r="F111" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" t="s">
+        <v>18</v>
+      </c>
+      <c r="B112" t="s">
+        <v>73</v>
+      </c>
+      <c r="D112">
+        <v>213.41</v>
+      </c>
+      <c r="F112" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/iran/Weekly-Deaths-Prediction r = 9.xlsx
+++ b/future_prediction/iran/Weekly-Deaths-Prediction r = 9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="77">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -73,6 +73,9 @@
     <t>2021-02-13</t>
   </si>
   <si>
+    <t>2021-02-20</t>
+  </si>
+  <si>
     <t>29 Mar -- 04 Apr 2020</t>
   </si>
   <si>
@@ -236,6 +239,9 @@
   </si>
   <si>
     <t>11 Apr -- 17 Apr 2021</t>
+  </si>
+  <si>
+    <t>18 Apr -- 24 Apr 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -596,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K112"/>
+  <dimension ref="A1:K121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -642,7 +648,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>133.57</v>
@@ -654,7 +660,7 @@
         <v>13.86</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G2">
         <v>0.09</v>
@@ -671,7 +677,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>129.29</v>
@@ -683,7 +689,7 @@
         <v>9.57</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -691,7 +697,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>96.29000000000001</v>
@@ -703,7 +709,7 @@
         <v>23.43</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -711,7 +717,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>88.43000000000001</v>
@@ -723,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -731,7 +737,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>72.29000000000001</v>
@@ -743,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -751,7 +757,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>61.86</v>
@@ -763,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -771,7 +777,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>49.71</v>
@@ -783,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -791,7 +797,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>60.29</v>
@@ -803,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -811,7 +817,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>53.57</v>
@@ -823,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -831,7 +837,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>67.86</v>
@@ -843,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -851,7 +857,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>74.43000000000001</v>
@@ -863,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -871,7 +877,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>111</v>
@@ -883,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,7 +897,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>122.43</v>
@@ -903,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -911,7 +917,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>149.14</v>
@@ -923,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -931,7 +937,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>175.29</v>
@@ -943,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -951,7 +957,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>192</v>
@@ -963,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -971,7 +977,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>215</v>
@@ -983,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -991,7 +997,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19">
         <v>214</v>
@@ -1003,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1011,7 +1017,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20">
         <v>183.14</v>
@@ -1023,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1031,7 +1037,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21">
         <v>175.43</v>
@@ -1043,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1051,7 +1057,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22">
         <v>144.29</v>
@@ -1063,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1071,7 +1077,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23">
         <v>122.43</v>
@@ -1083,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1091,7 +1097,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24">
         <v>113.57</v>
@@ -1103,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1111,7 +1117,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25">
         <v>125</v>
@@ -1123,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1131,7 +1137,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26">
         <v>155.57</v>
@@ -1143,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1151,7 +1157,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27">
         <v>182.29</v>
@@ -1163,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1171,7 +1177,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28">
         <v>193.14</v>
@@ -1183,7 +1189,7 @@
         <v>84</v>
       </c>
       <c r="F28" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1191,7 +1197,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C29">
         <v>221</v>
@@ -1203,7 +1209,7 @@
         <v>69.65000000000001</v>
       </c>
       <c r="F29" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1211,7 +1217,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30">
         <v>261.43</v>
@@ -1223,7 +1229,7 @@
         <v>108.14</v>
       </c>
       <c r="F30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1231,7 +1237,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31">
         <v>313.86</v>
@@ -1243,7 +1249,7 @@
         <v>164.29</v>
       </c>
       <c r="F31" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1251,7 +1257,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32">
         <v>363.43</v>
@@ -1263,7 +1269,7 @@
         <v>199.55</v>
       </c>
       <c r="F32" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1271,7 +1277,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C33">
         <v>424</v>
@@ -1283,7 +1289,7 @@
         <v>271.79</v>
       </c>
       <c r="F33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1291,7 +1297,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34">
         <v>457.43</v>
@@ -1303,7 +1309,7 @@
         <v>307.64</v>
       </c>
       <c r="F34" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1311,7 +1317,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35">
         <v>470.43</v>
@@ -1323,7 +1329,7 @@
         <v>331.9</v>
       </c>
       <c r="F35" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1331,7 +1337,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36">
         <v>451.29</v>
@@ -1343,7 +1349,7 @@
         <v>306.33</v>
       </c>
       <c r="F36" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1351,7 +1357,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37">
         <v>361.43</v>
@@ -1363,7 +1369,7 @@
         <v>212.45</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1371,7 +1377,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C38">
         <v>276.14</v>
@@ -1383,7 +1389,7 @@
         <v>126.66</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1391,7 +1397,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C39">
         <v>214.14</v>
@@ -1403,7 +1409,7 @@
         <v>44.65</v>
       </c>
       <c r="F39" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1411,7 +1417,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C40">
         <v>160.86</v>
@@ -1423,7 +1429,7 @@
         <v>3.34</v>
       </c>
       <c r="F40" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1431,7 +1437,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C41">
         <v>123.43</v>
@@ -1443,7 +1449,7 @@
         <v>49.67</v>
       </c>
       <c r="F41" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J41">
         <v>49.67</v>
@@ -1457,7 +1463,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C42">
         <v>94.56999999999999</v>
@@ -1469,7 +1475,7 @@
         <v>91.31999999999999</v>
       </c>
       <c r="F42" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J42">
         <v>70.5</v>
@@ -1483,7 +1489,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C43">
         <v>88.14</v>
@@ -1495,7 +1501,7 @@
         <v>110.82</v>
       </c>
       <c r="F43" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J43">
         <v>83.94</v>
@@ -1509,7 +1515,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C44">
         <v>82.43000000000001</v>
@@ -1521,7 +1527,7 @@
         <v>122.24</v>
       </c>
       <c r="F44" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J44">
         <v>93.51000000000001</v>
@@ -1535,7 +1541,7 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C45">
         <v>85</v>
@@ -1547,7 +1553,7 @@
         <v>141.08</v>
       </c>
       <c r="F45" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J45">
         <v>103.03</v>
@@ -1561,7 +1567,7 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C46">
         <v>74.70999999999999</v>
@@ -1573,7 +1579,7 @@
         <v>166</v>
       </c>
       <c r="F46" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J46">
         <v>113.52</v>
@@ -1587,7 +1593,7 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C47">
         <v>67.29000000000001</v>
@@ -1599,7 +1605,7 @@
         <v>189.88</v>
       </c>
       <c r="F47" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J47">
         <v>124.43</v>
@@ -1613,13 +1619,25 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="C48">
+        <v>75.14</v>
       </c>
       <c r="D48">
         <v>241.19</v>
       </c>
+      <c r="E48">
+        <v>166.04</v>
+      </c>
       <c r="F48" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="J48">
+        <v>129.63</v>
+      </c>
+      <c r="K48">
+        <v>162.77</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1627,13 +1645,13 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D49">
         <v>220.46</v>
       </c>
       <c r="F49" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1641,7 +1659,7 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C50">
         <v>94.56999999999999</v>
@@ -1653,7 +1671,7 @@
         <v>141.8</v>
       </c>
       <c r="F50" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G50">
         <v>6.03</v>
@@ -1665,10 +1683,10 @@
         <v>59.43</v>
       </c>
       <c r="J50">
-        <v>126.6</v>
+        <v>130.98</v>
       </c>
       <c r="K50">
-        <v>153.89</v>
+        <v>161.34</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1676,7 +1694,7 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C51">
         <v>88.14</v>
@@ -1688,13 +1706,13 @@
         <v>176.14</v>
       </c>
       <c r="F51" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J51">
-        <v>132.11</v>
+        <v>135.5</v>
       </c>
       <c r="K51">
-        <v>159</v>
+        <v>165.19</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1702,7 +1720,7 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C52">
         <v>82.43000000000001</v>
@@ -1714,13 +1732,13 @@
         <v>211.91</v>
       </c>
       <c r="F52" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J52">
-        <v>140.09</v>
+        <v>142.45</v>
       </c>
       <c r="K52">
-        <v>168.8</v>
+        <v>173.55</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1728,7 +1746,7 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C53">
         <v>85</v>
@@ -1740,13 +1758,13 @@
         <v>210.89</v>
       </c>
       <c r="F53" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J53">
-        <v>146.52</v>
+        <v>148.15</v>
       </c>
       <c r="K53">
-        <v>176.01</v>
+        <v>179.76</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1754,7 +1772,7 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C54">
         <v>74.70999999999999</v>
@@ -1766,13 +1784,13 @@
         <v>213.51</v>
       </c>
       <c r="F54" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J54">
-        <v>152.1</v>
+        <v>153.18</v>
       </c>
       <c r="K54">
-        <v>185.16</v>
+        <v>187.91</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1780,7 +1798,7 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C55">
         <v>67.29000000000001</v>
@@ -1792,13 +1810,13 @@
         <v>206.31</v>
       </c>
       <c r="F55" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J55">
-        <v>156.27</v>
+        <v>156.97</v>
       </c>
       <c r="K55">
-        <v>194.5</v>
+        <v>196.39</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1806,13 +1824,25 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="C56">
+        <v>75.14</v>
       </c>
       <c r="D56">
         <v>277.5</v>
       </c>
+      <c r="E56">
+        <v>202.36</v>
+      </c>
       <c r="F56" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="J56">
+        <v>160</v>
+      </c>
+      <c r="K56">
+        <v>201.25</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1820,13 +1850,13 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D57">
         <v>257.79</v>
       </c>
       <c r="F57" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1834,13 +1864,13 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D58">
         <v>253.42</v>
       </c>
       <c r="F58" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1848,7 +1878,7 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C59">
         <v>88.14</v>
@@ -1860,7 +1890,7 @@
         <v>176.14</v>
       </c>
       <c r="F59" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G59">
         <v>2.91</v>
@@ -1872,10 +1902,10 @@
         <v>88.41</v>
       </c>
       <c r="J59">
-        <v>157.69</v>
+        <v>161.01</v>
       </c>
       <c r="K59">
-        <v>194.88</v>
+        <v>201.16</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1883,7 +1913,7 @@
         <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C60">
         <v>82.43000000000001</v>
@@ -1895,13 +1925,13 @@
         <v>211.91</v>
       </c>
       <c r="F60" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J60">
-        <v>161.31</v>
+        <v>164</v>
       </c>
       <c r="K60">
-        <v>199.03</v>
+        <v>204.45</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1909,7 +1939,7 @@
         <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C61">
         <v>85</v>
@@ -1921,13 +1951,13 @@
         <v>210.89</v>
       </c>
       <c r="F61" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J61">
-        <v>164.41</v>
+        <v>166.61</v>
       </c>
       <c r="K61">
-        <v>202.1</v>
+        <v>206.88</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1935,7 +1965,7 @@
         <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C62">
         <v>74.70999999999999</v>
@@ -1947,13 +1977,13 @@
         <v>213.51</v>
       </c>
       <c r="F62" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J62">
-        <v>167.3</v>
+        <v>169.07</v>
       </c>
       <c r="K62">
-        <v>207.02</v>
+        <v>211.03</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1961,7 +1991,7 @@
         <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C63">
         <v>67.29000000000001</v>
@@ -1973,13 +2003,13 @@
         <v>206.31</v>
       </c>
       <c r="F63" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J63">
-        <v>169.46</v>
+        <v>170.94</v>
       </c>
       <c r="K63">
-        <v>212.55</v>
+        <v>215.81</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1987,13 +2017,25 @@
         <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="C64">
+        <v>75.14</v>
       </c>
       <c r="D64">
         <v>277.5</v>
       </c>
+      <c r="E64">
+        <v>202.36</v>
+      </c>
       <c r="F64" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="J64">
+        <v>172.43</v>
+      </c>
+      <c r="K64">
+        <v>218.36</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2001,13 +2043,13 @@
         <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D65">
         <v>257.79</v>
       </c>
       <c r="F65" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2015,13 +2057,13 @@
         <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D66">
         <v>253.42</v>
       </c>
       <c r="F66" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2029,13 +2071,13 @@
         <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D67">
         <v>292.15</v>
       </c>
       <c r="F67" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2043,7 +2085,7 @@
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C68">
         <v>82.43000000000001</v>
@@ -2055,7 +2097,7 @@
         <v>211.91</v>
       </c>
       <c r="F68" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G68">
         <v>1.41</v>
@@ -2067,10 +2109,10 @@
         <v>94.92</v>
       </c>
       <c r="J68">
-        <v>171.7</v>
+        <v>174.23</v>
       </c>
       <c r="K68">
-        <v>214.9</v>
+        <v>220.12</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2078,7 +2120,7 @@
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C69">
         <v>85</v>
@@ -2090,13 +2132,13 @@
         <v>210.89</v>
       </c>
       <c r="F69" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J69">
-        <v>173.66</v>
+        <v>175.82</v>
       </c>
       <c r="K69">
-        <v>216.56</v>
+        <v>221.34</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2104,7 +2146,7 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C70">
         <v>74.70999999999999</v>
@@ -2116,13 +2158,13 @@
         <v>213.51</v>
       </c>
       <c r="F70" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J70">
-        <v>175.55</v>
+        <v>177.39</v>
       </c>
       <c r="K70">
-        <v>219.85</v>
+        <v>224.02</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2130,7 +2172,7 @@
         <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C71">
         <v>67.29000000000001</v>
@@ -2142,13 +2184,13 @@
         <v>206.31</v>
       </c>
       <c r="F71" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J71">
-        <v>176.95</v>
+        <v>178.55</v>
       </c>
       <c r="K71">
-        <v>223.8</v>
+        <v>227.32</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2156,13 +2198,25 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="C72">
+        <v>75.14</v>
       </c>
       <c r="D72">
         <v>277.5</v>
       </c>
+      <c r="E72">
+        <v>202.36</v>
+      </c>
       <c r="F72" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="J72">
+        <v>179.46</v>
+      </c>
+      <c r="K72">
+        <v>228.94</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2170,13 +2224,13 @@
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D73">
         <v>257.79</v>
       </c>
       <c r="F73" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2184,13 +2238,13 @@
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D74">
         <v>253.42</v>
       </c>
       <c r="F74" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2198,13 +2252,13 @@
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D75">
         <v>292.15</v>
       </c>
       <c r="F75" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2212,13 +2266,13 @@
         <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D76">
         <v>340.15</v>
       </c>
       <c r="F76" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -2226,7 +2280,7 @@
         <v>15</v>
       </c>
       <c r="B77" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C77">
         <v>85</v>
@@ -2238,7 +2292,7 @@
         <v>210.89</v>
       </c>
       <c r="F77" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G77">
         <v>1.01</v>
@@ -2250,10 +2304,10 @@
         <v>100.68</v>
       </c>
       <c r="J77">
-        <v>178.43</v>
+        <v>180.63</v>
       </c>
       <c r="K77">
-        <v>224.85</v>
+        <v>229.65</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -2261,7 +2315,7 @@
         <v>15</v>
       </c>
       <c r="B78" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C78">
         <v>74.70999999999999</v>
@@ -2273,13 +2327,13 @@
         <v>213.51</v>
       </c>
       <c r="F78" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J78">
-        <v>179.89</v>
+        <v>181.8</v>
       </c>
       <c r="K78">
-        <v>227.39</v>
+        <v>231.65</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -2287,7 +2341,7 @@
         <v>15</v>
       </c>
       <c r="B79" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C79">
         <v>67.29000000000001</v>
@@ -2299,13 +2353,13 @@
         <v>206.31</v>
       </c>
       <c r="F79" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J79">
-        <v>180.95</v>
+        <v>182.65</v>
       </c>
       <c r="K79">
-        <v>230.56</v>
+        <v>234.24</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -2313,13 +2367,25 @@
         <v>15</v>
       </c>
       <c r="B80" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="C80">
+        <v>75.14</v>
       </c>
       <c r="D80">
         <v>277.5</v>
       </c>
+      <c r="E80">
+        <v>202.36</v>
+      </c>
       <c r="F80" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="J80">
+        <v>183.3</v>
+      </c>
+      <c r="K80">
+        <v>235.41</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -2327,13 +2393,13 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D81">
         <v>257.79</v>
       </c>
       <c r="F81" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -2341,13 +2407,13 @@
         <v>15</v>
       </c>
       <c r="B82" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D82">
         <v>253.42</v>
       </c>
       <c r="F82" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -2355,13 +2421,13 @@
         <v>15</v>
       </c>
       <c r="B83" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D83">
         <v>292.15</v>
       </c>
       <c r="F83" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -2369,13 +2435,13 @@
         <v>15</v>
       </c>
       <c r="B84" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D84">
         <v>340.15</v>
       </c>
       <c r="F84" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -2383,13 +2449,13 @@
         <v>15</v>
       </c>
       <c r="B85" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D85">
         <v>309.29</v>
       </c>
       <c r="F85" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -2397,7 +2463,7 @@
         <v>16</v>
       </c>
       <c r="B86" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C86">
         <v>74.70999999999999</v>
@@ -2409,7 +2475,7 @@
         <v>186.41</v>
       </c>
       <c r="F86" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H86">
         <v>179.42</v>
@@ -2418,10 +2484,10 @@
         <v>152.5</v>
       </c>
       <c r="J86">
-        <v>181.16</v>
+        <v>183.41</v>
       </c>
       <c r="K86">
-        <v>231.29</v>
+        <v>235.86</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -2429,7 +2495,7 @@
         <v>16</v>
       </c>
       <c r="B87" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C87">
         <v>67.29000000000001</v>
@@ -2441,13 +2507,13 @@
         <v>207.2</v>
       </c>
       <c r="F87" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J87">
-        <v>182.12</v>
+        <v>184.15</v>
       </c>
       <c r="K87">
-        <v>234.13</v>
+        <v>238.11</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -2455,13 +2521,25 @@
         <v>16</v>
       </c>
       <c r="B88" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="C88">
+        <v>75.14</v>
       </c>
       <c r="D88">
         <v>253.06</v>
       </c>
+      <c r="E88">
+        <v>177.92</v>
+      </c>
       <c r="F88" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="J88">
+        <v>183.96</v>
+      </c>
+      <c r="K88">
+        <v>238.07</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -2469,13 +2547,13 @@
         <v>16</v>
       </c>
       <c r="B89" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D89">
         <v>250.62</v>
       </c>
       <c r="F89" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -2483,13 +2561,13 @@
         <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D90">
         <v>248.49</v>
       </c>
       <c r="F90" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -2497,13 +2575,13 @@
         <v>16</v>
       </c>
       <c r="B91" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D91">
         <v>302.31</v>
       </c>
       <c r="F91" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -2511,13 +2589,13 @@
         <v>16</v>
       </c>
       <c r="B92" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D92">
         <v>304.83</v>
       </c>
       <c r="F92" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -2525,13 +2603,13 @@
         <v>16</v>
       </c>
       <c r="B93" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D93">
         <v>274.46</v>
       </c>
       <c r="F93" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -2539,13 +2617,13 @@
         <v>16</v>
       </c>
       <c r="B94" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D94">
         <v>221.92</v>
       </c>
       <c r="F94" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -2553,7 +2631,7 @@
         <v>17</v>
       </c>
       <c r="B95" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C95">
         <v>67.29000000000001</v>
@@ -2565,7 +2643,7 @@
         <v>179.85</v>
       </c>
       <c r="F95" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G95">
         <v>1.13</v>
@@ -2577,10 +2655,10 @@
         <v>165.94</v>
       </c>
       <c r="J95">
-        <v>182.04</v>
+        <v>183.84</v>
       </c>
       <c r="K95">
-        <v>235.31</v>
+        <v>238.93</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -2588,125 +2666,143 @@
         <v>17</v>
       </c>
       <c r="B96" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="C96">
+        <v>75.14</v>
       </c>
       <c r="D96">
         <v>242.85</v>
       </c>
+      <c r="E96">
+        <v>167.7</v>
+      </c>
       <c r="F96" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J96">
+        <v>183.38</v>
+      </c>
+      <c r="K96">
+        <v>238.48</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" t="s">
         <v>17</v>
       </c>
       <c r="B97" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D97">
         <v>245.76</v>
       </c>
       <c r="F97" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" t="s">
         <v>17</v>
       </c>
       <c r="B98" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D98">
         <v>240.77</v>
       </c>
       <c r="F98" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" t="s">
         <v>17</v>
       </c>
       <c r="B99" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D99">
         <v>230.72</v>
       </c>
       <c r="F99" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" t="s">
         <v>17</v>
       </c>
       <c r="B100" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D100">
         <v>229.38</v>
       </c>
       <c r="F100" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" t="s">
         <v>17</v>
       </c>
       <c r="B101" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D101">
         <v>215.32</v>
       </c>
       <c r="F101" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" t="s">
         <v>17</v>
       </c>
       <c r="B102" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D102">
         <v>225.52</v>
       </c>
       <c r="F102" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" t="s">
         <v>17</v>
       </c>
       <c r="B103" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D103">
         <v>216.94</v>
       </c>
       <c r="F103" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" t="s">
         <v>18</v>
       </c>
       <c r="B104" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="C104">
+        <v>75.14</v>
       </c>
       <c r="D104">
         <v>247.15</v>
       </c>
+      <c r="E104">
+        <v>172.01</v>
+      </c>
       <c r="F104" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G104">
         <v>0.8100000000000001</v>
@@ -2717,117 +2813,258 @@
       <c r="I104">
         <v>157.72</v>
       </c>
-    </row>
-    <row r="105" spans="1:9">
+      <c r="J104">
+        <v>183.06</v>
+      </c>
+      <c r="K104">
+        <v>238.22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" t="s">
         <v>18</v>
       </c>
       <c r="B105" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D105">
         <v>250.48</v>
       </c>
       <c r="F105" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" t="s">
         <v>18</v>
       </c>
       <c r="B106" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D106">
         <v>251.66</v>
       </c>
       <c r="F106" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" t="s">
         <v>18</v>
       </c>
       <c r="B107" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D107">
         <v>242.34</v>
       </c>
       <c r="F107" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" t="s">
         <v>18</v>
       </c>
       <c r="B108" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D108">
         <v>236.95</v>
       </c>
       <c r="F108" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" t="s">
         <v>18</v>
       </c>
       <c r="B109" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D109">
         <v>232.74</v>
       </c>
       <c r="F109" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" t="s">
         <v>18</v>
       </c>
       <c r="B110" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D110">
         <v>229.51</v>
       </c>
       <c r="F110" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" t="s">
         <v>18</v>
       </c>
       <c r="B111" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D111">
         <v>229.09</v>
       </c>
       <c r="F111" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" t="s">
         <v>18</v>
       </c>
       <c r="B112" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D112">
         <v>213.41</v>
       </c>
       <c r="F112" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" t="s">
+        <v>19</v>
+      </c>
+      <c r="B113" t="s">
+        <v>67</v>
+      </c>
+      <c r="D113">
+        <v>253.74</v>
+      </c>
+      <c r="F113" t="s">
+        <v>76</v>
+      </c>
+      <c r="G113">
+        <v>0.62</v>
+      </c>
+      <c r="H113">
+        <v>196.05</v>
+      </c>
+      <c r="I113">
+        <v>147.31</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" t="s">
+        <v>19</v>
+      </c>
+      <c r="B114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114">
+        <v>246.07</v>
+      </c>
+      <c r="F114" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" t="s">
+        <v>19</v>
+      </c>
+      <c r="B115" t="s">
+        <v>69</v>
+      </c>
+      <c r="D115">
+        <v>221.26</v>
+      </c>
+      <c r="F115" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" t="s">
+        <v>19</v>
+      </c>
+      <c r="B116" t="s">
+        <v>70</v>
+      </c>
+      <c r="D116">
+        <v>194.24</v>
+      </c>
+      <c r="F116" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" t="s">
+        <v>19</v>
+      </c>
+      <c r="B117" t="s">
+        <v>71</v>
+      </c>
+      <c r="D117">
+        <v>176.12</v>
+      </c>
+      <c r="F117" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" t="s">
+        <v>19</v>
+      </c>
+      <c r="B118" t="s">
+        <v>72</v>
+      </c>
+      <c r="D118">
+        <v>161.08</v>
+      </c>
+      <c r="F118" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" t="s">
+        <v>19</v>
+      </c>
+      <c r="B119" t="s">
+        <v>73</v>
+      </c>
+      <c r="D119">
+        <v>148.49</v>
+      </c>
+      <c r="F119" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" t="s">
+        <v>19</v>
+      </c>
+      <c r="B120" t="s">
         <v>74</v>
+      </c>
+      <c r="D120">
+        <v>114.55</v>
+      </c>
+      <c r="F120" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" t="s">
+        <v>19</v>
+      </c>
+      <c r="B121" t="s">
+        <v>75</v>
+      </c>
+      <c r="D121">
+        <v>100.78</v>
+      </c>
+      <c r="F121" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
